--- a/files/rn.xlsx
+++ b/files/rn.xlsx
@@ -72,2502 +72,2502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>914.0</v>
+        <v>542.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>342.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>662.0</v>
+        <v>646.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>905.0</v>
+        <v>806.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>287.0</v>
+        <v>477.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>225.0</v>
+        <v>294.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>455.0</v>
+        <v>476.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>844.0</v>
+        <v>868.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>393.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>581.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>708.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>183.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>292.0</v>
+        <v>462.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>928.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>679.0</v>
+        <v>499.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>876.0</v>
+        <v>455.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>868.0</v>
+        <v>966.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>528.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>696.0</v>
+        <v>118.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>531.0</v>
+        <v>749.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>464.0</v>
+        <v>641.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>774.0</v>
+        <v>994.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>652.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>175.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>196.0</v>
+        <v>978.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>771.0</v>
+        <v>627.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>697.0</v>
+        <v>128.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>443.0</v>
+        <v>399.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>334.0</v>
+        <v>847.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>323.0</v>
+        <v>898.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>300.0</v>
+        <v>456.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>143.0</v>
+        <v>467.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>715.0</v>
+        <v>446.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>545.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>619.0</v>
+        <v>724.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>529.0</v>
+        <v>413.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>706.0</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>230.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>495.0</v>
+        <v>332.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>155.0</v>
+        <v>709.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>104.0</v>
+        <v>555.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>145.0</v>
+        <v>965.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>315.0</v>
+        <v>761.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>167.0</v>
+        <v>932.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>394.0</v>
+        <v>686.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>982.0</v>
+        <v>284.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>512.0</v>
+        <v>789.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>820.0</v>
+        <v>591.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>631.0</v>
+        <v>940.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>506.0</v>
+        <v>944.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>626.0</v>
+        <v>625.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>668.0</v>
+        <v>374.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>861.0</v>
+        <v>603.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>105.0</v>
+        <v>666.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>168.0</v>
+        <v>488.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>140.0</v>
+        <v>853.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>412.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>454.0</v>
+        <v>132.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>922.0</v>
+        <v>623.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>441.0</v>
+        <v>896.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>161.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>847.0</v>
+        <v>637.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>318.0</v>
+        <v>344.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>556.0</v>
+        <v>361.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>967.0</v>
+        <v>871.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>473.0</v>
+        <v>303.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>365.0</v>
+        <v>772.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>983.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>522.0</v>
+        <v>921.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>297.0</v>
+        <v>546.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>372.0</v>
+        <v>668.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>476.0</v>
+        <v>950.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>153.0</v>
+        <v>884.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>341.0</v>
+        <v>702.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>234.0</v>
+        <v>741.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>452.0</v>
+        <v>419.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>674.0</v>
+        <v>187.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>909.0</v>
+        <v>653.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>912.0</v>
+        <v>714.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>625.0</v>
+        <v>760.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>386.0</v>
+        <v>728.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>978.0</v>
+        <v>639.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>890.0</v>
+        <v>942.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>345.0</v>
+        <v>783.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>828.0</v>
+        <v>548.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>438.0</v>
+        <v>239.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>638.0</v>
+        <v>279.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>223.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>352.0</v>
+        <v>752.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>368.0</v>
+        <v>762.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>972.0</v>
+        <v>420.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>799.0</v>
+        <v>524.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>309.0</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>572.0</v>
+        <v>906.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>807.0</v>
+        <v>908.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>612.0</v>
+        <v>196.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>959.0</v>
+        <v>173.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>146.0</v>
+        <v>575.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>205.0</v>
+        <v>866.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>642.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>202.0</v>
+        <v>116.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>255.0</v>
+        <v>151.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>842.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>843.0</v>
+        <v>910.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>403.0</v>
+        <v>661.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>995.0</v>
+        <v>757.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>429.0</v>
+        <v>109.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>989.0</v>
+        <v>971.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>872.0</v>
+        <v>671.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>990.0</v>
+        <v>501.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>211.0</v>
+        <v>687.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>290.0</v>
+        <v>947.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>609.0</v>
+        <v>312.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>645.0</v>
+        <v>512.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>639.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>789.0</v>
+        <v>593.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>358.0</v>
+        <v>826.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>575.0</v>
+        <v>434.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>269.0</v>
+        <v>271.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>459.0</v>
+        <v>156.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>646.0</v>
+        <v>554.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>401.0</v>
+        <v>530.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>629.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>325.0</v>
+        <v>779.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>863.0</v>
+        <v>992.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>722.0</v>
+        <v>655.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>324.0</v>
+        <v>461.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>795.0</v>
+        <v>517.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>285.0</v>
+        <v>797.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>636.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>256.0</v>
+        <v>858.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>891.0</v>
+        <v>941.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>699.0</v>
+        <v>733.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>536.0</v>
+        <v>951.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>874.0</v>
+        <v>379.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>496.0</v>
+        <v>988.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>219.0</v>
+        <v>251.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>194.0</v>
+        <v>725.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>910.0</v>
+        <v>861.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>865.0</v>
+        <v>844.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>934.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>474.0</v>
+        <v>735.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>282.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>381.0</v>
+        <v>534.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>714.0</v>
+        <v>308.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>829.0</v>
+        <v>959.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>673.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>840.0</v>
+        <v>317.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>940.0</v>
+        <v>422.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>763.0</v>
+        <v>256.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>769.0</v>
+        <v>586.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>534.0</v>
+        <v>559.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>257.0</v>
+        <v>933.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>268.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>565.0</v>
+        <v>604.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>896.0</v>
+        <v>428.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>398.0</v>
+        <v>934.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>366.0</v>
+        <v>381.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>301.0</v>
+        <v>842.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>903.0</v>
+        <v>695.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>797.0</v>
+        <v>218.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>278.0</v>
+        <v>989.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>240.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>559.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>481.0</v>
+        <v>751.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>458.0</v>
+        <v>579.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>822.0</v>
+        <v>642.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>780.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>637.0</v>
+        <v>213.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>364.0</v>
+        <v>543.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>260.0</v>
+        <v>259.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>547.0</v>
+        <v>614.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>733.0</v>
+        <v>427.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>166.0</v>
+        <v>829.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>264.0</v>
+        <v>283.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>497.0</v>
+        <v>732.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>232.0</v>
+        <v>770.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>409.0</v>
+        <v>148.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>361.0</v>
+        <v>798.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>604.0</v>
+        <v>322.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>985.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>229.0</v>
+        <v>656.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>204.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>416.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>122.0</v>
+        <v>188.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>503.0</v>
+        <v>362.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>117.0</v>
+        <v>562.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>354.0</v>
+        <v>508.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>141.0</v>
+        <v>376.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>590.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>703.0</v>
+        <v>688.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>134.0</v>
+        <v>823.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>831.0</v>
+        <v>746.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>413.0</v>
+        <v>576.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>939.0</v>
+        <v>820.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>918.0</v>
+        <v>323.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>719.0</v>
+        <v>774.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>742.0</v>
+        <v>601.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>977.0</v>
+        <v>981.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>422.0</v>
+        <v>293.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>376.0</v>
+        <v>697.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>303.0</v>
+        <v>537.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>952.0</v>
+        <v>391.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>776.0</v>
+        <v>556.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>193.0</v>
+        <v>364.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>157.0</v>
+        <v>870.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>284.0</v>
+        <v>482.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>994.0</v>
+        <v>531.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>291.0</v>
+        <v>913.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>564.0</v>
+        <v>528.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>475.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>252.0</v>
+        <v>331.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>794.0</v>
+        <v>372.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>133.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>537.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>695.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>873.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>375.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>373.0</v>
+        <v>833.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>136.0</v>
+        <v>356.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>907.0</v>
+        <v>949.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>955.0</v>
+        <v>349.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>304.0</v>
+        <v>841.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>601.0</v>
+        <v>287.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>614.0</v>
+        <v>341.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>808.0</v>
+        <v>598.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>486.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>738.0</v>
+        <v>693.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>578.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>551.0</v>
+        <v>382.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>687.0</v>
+        <v>594.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>923.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>901.0</v>
+        <v>540.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>383.0</v>
+        <v>494.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>411.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>887.0</v>
+        <v>878.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>597.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>542.0</v>
+        <v>369.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>239.0</v>
+        <v>405.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>555.0</v>
+        <v>710.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>437.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>970.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>162.0</v>
+        <v>929.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>110.0</v>
+        <v>643.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>215.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>316.0</v>
+        <v>535.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>966.0</v>
+        <v>764.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>732.0</v>
+        <v>711.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>570.0</v>
+        <v>470.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>938.0</v>
+        <v>674.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>984.0</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>288.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>724.0</v>
+        <v>707.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>348.0</v>
+        <v>432.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>962.0</v>
+        <v>982.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>384.0</v>
+        <v>880.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>502.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>621.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>927.0</v>
+        <v>634.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>926.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>115.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>470.0</v>
+        <v>526.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>734.0</v>
+        <v>204.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>816.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>713.0</v>
+        <v>386.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>498.0</v>
+        <v>415.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>415.0</v>
+        <v>157.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>151.0</v>
+        <v>718.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>791.0</v>
+        <v>296.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>489.0</v>
+        <v>339.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>929.0</v>
+        <v>804.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>261.0</v>
+        <v>131.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>249.0</v>
+        <v>765.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>693.0</v>
+        <v>353.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>248.0</v>
+        <v>438.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>177.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>605.0</v>
+        <v>571.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>532.0</v>
+        <v>701.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>235.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>743.0</v>
+        <v>440.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>344.0</v>
+        <v>630.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>729.0</v>
+        <v>948.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>975.0</v>
+        <v>730.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>148.0</v>
+        <v>193.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>603.0</v>
+        <v>684.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>450.0</v>
+        <v>569.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>518.0</v>
+        <v>799.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>618.0</v>
+        <v>578.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>617.0</v>
+        <v>319.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>827.0</v>
+        <v>152.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>606.0</v>
+        <v>449.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>467.0</v>
+        <v>805.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>580.0</v>
+        <v>334.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>897.0</v>
+        <v>504.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>463.0</v>
+        <v>394.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>387.0</v>
+        <v>662.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>689.0</v>
+        <v>582.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>830.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>228.0</v>
+        <v>784.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>190.0</v>
+        <v>699.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>814.0</v>
+        <v>889.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>430.0</v>
+        <v>397.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>156.0</v>
+        <v>738.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>296.0</v>
+        <v>236.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>837.0</v>
+        <v>875.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>878.0</v>
+        <v>458.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>218.0</v>
+        <v>830.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>444.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>509.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>692.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>568.0</v>
+        <v>409.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>576.0</v>
+        <v>769.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>313.0</v>
+        <v>719.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>751.0</v>
+        <v>758.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>127.0</v>
+        <v>345.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>544.0</v>
+        <v>628.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>561.0</v>
+        <v>192.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>809.0</v>
+        <v>640.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>647.0</v>
+        <v>216.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>331.0</v>
+        <v>363.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>539.0</v>
+        <v>990.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>419.0</v>
+        <v>590.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>798.0</v>
+        <v>232.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>980.0</v>
+        <v>584.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>275.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>480.0</v>
+        <v>138.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>428.0</v>
+        <v>922.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>747.0</v>
+        <v>518.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>478.0</v>
+        <v>723.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>336.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>371.0</v>
+        <v>186.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>824.0</v>
+        <v>755.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>335.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>431.0</v>
+        <v>519.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>456.0</v>
+        <v>849.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>453.0</v>
+        <v>496.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>759.0</v>
+        <v>698.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>306.0</v>
+        <v>907.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>343.0</v>
+        <v>993.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>779.0</v>
+        <v>863.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>936.0</v>
+        <v>745.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>351.0</v>
+        <v>957.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>514.0</v>
+        <v>648.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>730.0</v>
+        <v>916.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>418.0</v>
+        <v>393.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>888.0</v>
+        <v>588.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>251.0</v>
+        <v>851.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>720.0</v>
+        <v>983.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>362.0</v>
+        <v>616.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>906.0</v>
+        <v>269.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>516.0</v>
+        <v>365.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>721.0</v>
+        <v>258.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>933.0</v>
+        <v>191.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>702.0</v>
+        <v>257.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>845.0</v>
+        <v>342.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>812.0</v>
+        <v>936.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>951.0</v>
+        <v>925.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>339.0</v>
+        <v>307.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>363.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>405.0</v>
+        <v>430.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>772.0</v>
+        <v>996.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>207.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>389.0</v>
+        <v>763.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>410.0</v>
+        <v>793.0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>628.0</v>
+        <v>836.0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>328.0</v>
+        <v>522.0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>451.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>349.0</v>
+        <v>734.0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>208.0</v>
+        <v>660.0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>723.0</v>
+        <v>557.0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>332.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>788.0</v>
+        <v>943.0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>677.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>700.0</v>
+        <v>963.0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>406.0</v>
+        <v>207.0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>237.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>245.0</v>
+        <v>976.0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>492.0</v>
+        <v>635.0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>121.0</v>
+        <v>585.0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>447.0</v>
+        <v>507.0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>752.0</v>
+        <v>867.0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>523.0</v>
+        <v>869.0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>501.0</v>
+        <v>437.0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>552.0</v>
+        <v>457.0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>538.0</v>
+        <v>624.0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>768.0</v>
+        <v>443.0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>815.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>588.0</v>
+        <v>273.0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>644.0</v>
+        <v>633.0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>785.0</v>
+        <v>178.0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>535.0</v>
+        <v>647.0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>320.0</v>
+        <v>505.0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>932.0</v>
+        <v>265.0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>494.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>468.0</v>
+        <v>672.0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>433.0</v>
+        <v>608.0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>862.0</v>
+        <v>453.0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>587.0</v>
+        <v>731.0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>102.0</v>
+        <v>479.0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>106.0</v>
+        <v>704.0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>302.0</v>
+        <v>229.0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>848.0</v>
+        <v>825.0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>241.0</v>
+        <v>914.0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>404.0</v>
+        <v>977.0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>875.0</v>
+        <v>673.0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>981.0</v>
+        <v>717.0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>593.0</v>
+        <v>252.0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>173.0</v>
+        <v>759.0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>188.0</v>
+        <v>903.0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>172.0</v>
+        <v>411.0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>499.0</v>
+        <v>199.0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>775.0</v>
+        <v>794.0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>864.0</v>
+        <v>743.0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>125.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>327.0</v>
+        <v>945.0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>562.0</v>
+        <v>813.0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>337.0</v>
+        <v>881.0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>227.0</v>
+        <v>549.0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>757.0</v>
+        <v>359.0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>870.0</v>
+        <v>404.0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>367.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>691.0</v>
+        <v>254.0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>744.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>790.0</v>
+        <v>609.0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>735.0</v>
+        <v>777.0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>672.0</v>
+        <v>538.0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>525.0</v>
+        <v>599.0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>745.0</v>
+        <v>694.0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>350.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>170.0</v>
+        <v>563.0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>717.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>718.0</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>220.0</v>
+        <v>378.0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>988.0</v>
+        <v>972.0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>930.0</v>
+        <v>166.0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>126.0</v>
+        <v>938.0</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>171.0</v>
+        <v>632.0</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>871.0</v>
+        <v>912.0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>586.0</v>
+        <v>412.0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>818.0</v>
+        <v>645.0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>200.0</v>
+        <v>417.0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>947.0</v>
+        <v>527.0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>526.0</v>
+        <v>787.0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>669.0</v>
+        <v>818.0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>893.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>508.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>898.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>530.0</v>
+        <v>439.0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>360.0</v>
+        <v>483.0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>338.0</v>
+        <v>247.0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>569.0</v>
+        <v>503.0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>969.0</v>
+        <v>956.0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>836.0</v>
+        <v>580.0</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>312.0</v>
+        <v>423.0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>611.0</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>295.0</v>
+        <v>387.0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>851.0</v>
+        <v>831.0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>680.0</v>
+        <v>659.0</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>262.0</v>
+        <v>902.0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>819.0</v>
+        <v>227.0</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>894.0</v>
+        <v>796.0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>577.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>243.0</v>
+        <v>176.0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>449.0</v>
+        <v>924.0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>655.0</v>
+        <v>172.0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>515.0</v>
+        <v>615.0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>267.0</v>
+        <v>681.0</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>725.0</v>
+        <v>304.0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>369.0</v>
+        <v>935.0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>704.0</v>
+        <v>233.0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>755.0</v>
+        <v>278.0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>112.0</v>
+        <v>864.0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>558.0</v>
+        <v>766.0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>392.0</v>
+        <v>985.0</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>192.0</v>
+        <v>480.0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>777.0</v>
+        <v>573.0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>432.0</v>
+        <v>887.0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>749.0</v>
+        <v>567.0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>997.0</v>
+        <v>737.0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>852.0</v>
+        <v>366.0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>701.0</v>
+        <v>917.0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>442.0</v>
+        <v>478.0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>462.0</v>
+        <v>592.0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>707.0</v>
+        <v>238.0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>783.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>880.0</v>
+        <v>809.0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>465.0</v>
+        <v>481.0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>281.0</v>
+        <v>613.0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>108.0</v>
+        <v>327.0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>855.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>272.0</v>
+        <v>890.0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>169.0</v>
+        <v>431.0</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>813.0</v>
+        <v>558.0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>602.0</v>
+        <v>703.0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>488.0</v>
+        <v>960.0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>353.0</v>
+        <v>832.0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>109.0</v>
+        <v>658.0</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>554.0</v>
+        <v>129.0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>242.0</v>
+        <v>459.0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>802.0</v>
+        <v>651.0</v>
       </c>
     </row>
   </sheetData>
